--- a/budget-dashboard/public/budget.xlsx
+++ b/budget-dashboard/public/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C3AFA4-F3A8-45B7-B738-553E72E717F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F7B2C-7344-4E6A-94C6-AF723048DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28920" yWindow="-4215" windowWidth="24630" windowHeight="19455" xr2:uid="{AB41CCEA-6DC9-4FE2-81C8-E03C986F168A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Paycheck</t>
   </si>
@@ -640,15 +640,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52283031-DB9A-4476-88C9-66DCDD796C5D}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
@@ -751,7 +751,7 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5">
-        <v>45974</v>
+        <v>45977</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -772,8 +772,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>S3+C3-E3-F3-G3-H3</f>
-        <v>977.45</v>
+        <v>567.45000000000005</v>
       </c>
       <c r="J3" s="6">
         <f>Q5-F3</f>
@@ -781,18 +780,18 @@
       </c>
       <c r="K3" s="6">
         <f>O5-H3</f>
-        <v>858.18</v>
+        <v>1737.9899999999998</v>
       </c>
       <c r="L3" s="6">
         <f>R5-G3+D3</f>
-        <v>14787.08</v>
+        <v>15357.76</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2">
-        <v>819.38</v>
+        <v>1164.8599999999999</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>11</v>
@@ -801,18 +800,18 @@
         <v>3727.93</v>
       </c>
       <c r="R3" s="2">
-        <v>13627.46</v>
+        <v>15157.76</v>
       </c>
       <c r="S3" s="15">
         <v>977.45</v>
       </c>
       <c r="T3" s="10">
         <f>O5+Q5+R5</f>
-        <v>19173.189999999999</v>
+        <v>20623.68</v>
       </c>
       <c r="U3" s="13">
         <f>S3-T3</f>
-        <v>-18195.739999999998</v>
+        <v>-19646.23</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -840,7 +839,7 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I22" si="0">I3+C4-E4-F4-G4-H4</f>
-        <v>4477.45</v>
+        <v>4067.45</v>
       </c>
       <c r="J4" s="6">
         <f>J3-F4</f>
@@ -848,27 +847,27 @@
       </c>
       <c r="K4" s="6">
         <f>K3-H4</f>
-        <v>858.18</v>
+        <v>1737.9899999999998</v>
       </c>
       <c r="L4" s="6">
         <f>L3-G4+D4</f>
-        <v>14987.08</v>
+        <v>15557.76</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4">
-        <v>38.799999999999997</v>
+        <v>573.13</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="10">
-        <v>959.6200000000008</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6">
         <f t="shared" ref="S4:S25" si="1">I4</f>
-        <v>4477.45</v>
+        <v>4067.45</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -898,7 +897,7 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>2717.45</v>
+        <v>2307.4499999999998</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" ref="J5:J22" si="2">J4-F5</f>
@@ -906,11 +905,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ref="K5:K22" si="3">K4-H5</f>
-        <v>858.18</v>
+        <v>1737.9899999999998</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:L22" si="4">L4-G5+D5</f>
-        <v>14987.08</v>
+        <v>15557.76</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>18</v>
@@ -918,7 +917,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2">
         <f>O3+O4</f>
-        <v>858.18</v>
+        <v>1737.9899999999998</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="6">
@@ -927,11 +926,11 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5" si="5">SUM(R3:R4)</f>
-        <v>14587.08</v>
+        <v>15157.76</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" si="1"/>
-        <v>2717.45</v>
+        <v>2307.4499999999998</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -961,7 +960,7 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>2717.45</v>
+        <v>2307.4499999999998</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
@@ -969,11 +968,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>1737.9899999999998</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="4"/>
-        <v>15187.08</v>
+        <v>15757.76</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>7</v>
@@ -985,7 +984,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="6">
         <f t="shared" si="1"/>
-        <v>2717.45</v>
+        <v>2307.4499999999998</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1005,30 +1004,29 @@
         <v>0</v>
       </c>
       <c r="F7" s="12">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G7" s="12">
         <v>4000</v>
       </c>
       <c r="H7" s="9">
-        <f>N12</f>
-        <v>0</v>
+        <v>808.07</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>1217.4499999999998</v>
+        <v>249.37999999999977</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>2727.93</v>
+        <v>2977.93</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="4"/>
-        <v>11387.08</v>
+        <v>11957.76</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
@@ -1047,7 +1045,7 @@
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
-        <v>1217.4499999999998</v>
+        <v>249.37999999999977</v>
       </c>
       <c r="T7" s="10">
         <f>N7+Q7+R7</f>
@@ -1055,7 +1053,7 @@
       </c>
       <c r="U7" s="13">
         <f>S7-T7</f>
-        <v>-13290.150000000001</v>
+        <v>-14258.220000000001</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1083,48 +1081,48 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>1217.4499999999998</v>
+        <v>249.37999999999977</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
-        <v>2727.93</v>
+        <v>2977.93</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="4"/>
-        <v>11587.08</v>
+        <v>12157.76</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="9">
-        <f>N7-H3</f>
-        <v>808.07</v>
+        <f>N7-H7</f>
+        <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="11">
-        <f>Q7-F8</f>
-        <v>3727.93</v>
+        <f>Q7-F7</f>
+        <v>2977.93</v>
       </c>
       <c r="R8" s="11">
-        <f>R7-G8</f>
-        <v>9971.6</v>
+        <f>R7-G7</f>
+        <v>5971.6</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
-        <v>1217.4499999999998</v>
+        <v>249.37999999999977</v>
       </c>
       <c r="T8" s="10">
         <f>N8+Q8+R8</f>
-        <v>14507.6</v>
+        <v>8949.5300000000007</v>
       </c>
       <c r="U8" s="13">
         <f>S8-T8</f>
-        <v>-13290.150000000001</v>
+        <v>-8700.1500000000015</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1152,19 +1150,19 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>4717.45</v>
+        <v>3749.3799999999997</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>2727.93</v>
+        <v>2977.93</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="4"/>
-        <v>11787.08</v>
+        <v>12357.76</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1174,7 +1172,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
-        <v>4717.45</v>
+        <v>3749.3799999999997</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1204,19 +1202,19 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>2957.45</v>
+        <v>1989.3799999999997</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="2"/>
-        <v>2727.93</v>
+        <v>2977.93</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="4"/>
-        <v>11787.08</v>
+        <v>12357.76</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>18</v>
@@ -1228,7 +1226,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
-        <v>2957.45</v>
+        <v>1989.3799999999997</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1258,19 +1256,19 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>2957.45</v>
+        <v>1989.3799999999997</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>2727.93</v>
+        <v>2977.93</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="4"/>
-        <v>11987.08</v>
+        <v>12557.76</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1280,7 +1278,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
-        <v>2957.45</v>
+        <v>1989.3799999999997</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1300,29 +1298,29 @@
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <v>1500</v>
+        <v>2977.93</v>
       </c>
       <c r="G12" s="12">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>957.44999999999982</v>
+        <v>581.52999999999963</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="4"/>
-        <v>8187.08</v>
+        <v>11757.76</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>7</v>
@@ -1334,7 +1332,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
-        <v>957.44999999999982</v>
+        <v>581.52999999999963</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1364,26 +1362,26 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>957.44999999999982</v>
+        <v>581.52999999999963</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="4"/>
-        <v>8387.08</v>
+        <v>11957.76</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="11">
         <f>N8 + (O5-N7)</f>
-        <v>858.18</v>
+        <v>929.91999999999973</v>
       </c>
       <c r="O13" s="4">
         <f>SUM(D8:D12)</f>
@@ -1392,23 +1390,23 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="11">
         <f>Q8 + (Q5-Q7)</f>
-        <v>3727.93</v>
+        <v>2977.93</v>
       </c>
       <c r="R13" s="11">
         <f>R8 + (R5-R7) + O7</f>
-        <v>15387.08</v>
+        <v>11957.76</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
-        <v>957.44999999999982</v>
+        <v>581.52999999999963</v>
       </c>
       <c r="T13" s="10">
         <f>N13+Q13+R13</f>
-        <v>19973.189999999999</v>
+        <v>15865.61</v>
       </c>
       <c r="U13" s="13">
         <f>S13-T13</f>
-        <v>-19015.739999999998</v>
+        <v>-15284.080000000002</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1436,46 +1434,46 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>4457.45</v>
+        <v>4081.5299999999997</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="4"/>
-        <v>8587.08</v>
+        <v>12157.76</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="19">
-        <f>N13-H8</f>
-        <v>858.18</v>
+        <f>N13-H12</f>
+        <v>0</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="16">
-        <f>Q13-F13</f>
-        <v>3727.93</v>
+        <f>Q13-F12</f>
+        <v>0</v>
       </c>
       <c r="R14" s="11">
-        <f>R13-G13</f>
-        <v>15387.08</v>
+        <f>R13-G12</f>
+        <v>10957.76</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
-        <v>4457.45</v>
+        <v>4081.5299999999997</v>
       </c>
       <c r="T14" s="10">
         <f>N14+Q14+R14</f>
-        <v>19973.189999999999</v>
+        <v>10957.76</v>
       </c>
       <c r="U14" s="13">
         <f>S14-T14</f>
-        <v>-15515.739999999998</v>
+        <v>-6876.2300000000005</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1503,19 +1501,19 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>4457.45</v>
+        <v>4081.5299999999997</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="4"/>
-        <v>8787.08</v>
+        <v>12357.76</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>18</v>
@@ -1527,7 +1525,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
-        <v>4457.45</v>
+        <v>4081.5299999999997</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1557,19 +1555,19 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>2697.45</v>
+        <v>2321.5299999999997</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="4"/>
-        <v>8787.08</v>
+        <v>12357.76</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1579,7 +1577,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
-        <v>2697.45</v>
+        <v>2321.5299999999997</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1609,19 +1607,19 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>6197.45</v>
+        <v>5821.53</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="4"/>
-        <v>8987.08</v>
+        <v>12557.76</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>7</v>
@@ -1633,7 +1631,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
-        <v>6197.45</v>
+        <v>5821.53</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1657,33 +1655,33 @@
         <v>0</v>
       </c>
       <c r="G18" s="12">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>2197.4499999999998</v>
+        <v>821.52999999999975</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="4"/>
-        <v>5187.08</v>
+        <v>7757.76</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="19">
         <f>N14</f>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4">
         <f>SUM(D13:D18)</f>
@@ -1692,23 +1690,23 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="16">
         <f>Q14</f>
-        <v>3727.93</v>
+        <v>0</v>
       </c>
       <c r="R18" s="11">
         <f>R14+O13</f>
-        <v>16187.08</v>
+        <v>11757.76</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
-        <v>2197.4499999999998</v>
+        <v>821.52999999999975</v>
       </c>
       <c r="T18" s="10">
         <f>N18+Q18+R18</f>
-        <v>20773.189999999999</v>
+        <v>11757.76</v>
       </c>
       <c r="U18" s="14">
         <f>S17-T18</f>
-        <v>-14575.739999999998</v>
+        <v>-5936.2300000000005</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1736,46 +1734,46 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>5697.45</v>
+        <v>4321.53</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="4"/>
-        <v>5387.08</v>
+        <v>7957.76</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="19">
         <f>N18-H13</f>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="16">
         <f>Q18-F19</f>
-        <v>3727.93</v>
-      </c>
-      <c r="R19" s="16">
-        <f>R18-G19</f>
-        <v>16187.08</v>
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <f>R18-G18</f>
+        <v>6757.76</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="1"/>
-        <v>5697.45</v>
+        <v>4321.53</v>
       </c>
       <c r="T19" s="10">
         <f>N19+Q19+R19</f>
-        <v>20773.189999999999</v>
+        <v>6757.76</v>
       </c>
       <c r="U19" s="14">
         <f>S19-T19</f>
-        <v>-15075.739999999998</v>
+        <v>-2436.2300000000005</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1803,19 +1801,19 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>5697.45</v>
+        <v>4321.53</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="4"/>
-        <v>5587.08</v>
+        <v>8157.76</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>18</v>
@@ -1827,7 +1825,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="6">
         <f t="shared" si="1"/>
-        <v>5697.45</v>
+        <v>4321.53</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1857,19 +1855,19 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>3937.45</v>
+        <v>2561.5299999999997</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="4"/>
-        <v>5587.08</v>
+        <v>8157.76</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1879,7 +1877,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="6">
         <f t="shared" si="1"/>
-        <v>3937.45</v>
+        <v>2561.5299999999997</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1909,19 +1907,19 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>7437.45</v>
+        <v>6061.53</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="2"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="3"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="4"/>
-        <v>5787.08</v>
+        <v>8357.76</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>18</v>
@@ -1933,7 +1931,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="6">
         <f t="shared" si="1"/>
-        <v>7437.45</v>
+        <v>6061.53</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1956,27 +1954,26 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f>R23</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ref="I23" si="6">I22+C23-E23-F23-G23-H23</f>
-        <v>7437.45</v>
+        <v>1061.5299999999997</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" ref="J23" si="7">J22-F23</f>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" ref="K23" si="8">K22-H23</f>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" ref="L23" si="9">L22-G23+D23</f>
-        <v>5987.08</v>
+        <v>3557.76</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1986,7 +1983,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="6">
         <f t="shared" si="1"/>
-        <v>7437.45</v>
+        <v>1061.5299999999997</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2016,23 +2013,23 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ref="I24:I25" si="10">I23+C24-E24-F24-G24-H24</f>
-        <v>10937.45</v>
+        <v>4561.53</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" ref="J24:J25" si="11">J23-F24</f>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" ref="K24:K25" si="12">K23-H24</f>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" ref="L24:L25" si="13">L23-G24+D24</f>
-        <v>6187.08</v>
+        <v>3757.76</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="19">
-        <f>N20</f>
+        <f>N19</f>
         <v>0</v>
       </c>
       <c r="O24" s="4">
@@ -2041,16 +2038,16 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="16">
-        <f>Q20</f>
+        <f>Q19</f>
         <v>0</v>
       </c>
       <c r="R24" s="11">
         <f>R19+O18</f>
-        <v>17187.080000000002</v>
+        <v>7757.76</v>
       </c>
       <c r="S24" s="6">
         <f t="shared" si="1"/>
-        <v>10937.45</v>
+        <v>4561.53</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2080,26 +2077,35 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" ref="I25:I27" si="14">I24+C25-E25-F25-G25-H25</f>
-        <v>10937.45</v>
+        <v>4561.53</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" ref="J25:J27" si="15">J24-F25</f>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" ref="K25:K27" si="16">K24-H25</f>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" ref="L25:L27" si="17">L24-G25+D25</f>
-        <v>6387.08</v>
+        <v>3957.76</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="19">
+        <f>N24-H23</f>
+        <v>0</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="Q25" s="16">
+        <f>Q24-F23</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <f>R24-G23</f>
+        <v>2757.76</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2129,21 +2135,23 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="14"/>
-        <v>14437.45</v>
+        <v>8061.53</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="15"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="16"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="17"/>
-        <v>6387.08</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>3957.76</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2178,19 +2186,19 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="14"/>
-        <v>12677.45</v>
+        <v>6301.53</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="15"/>
-        <v>1227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="16"/>
-        <v>858.18</v>
+        <v>0</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="17"/>
-        <v>6587.08</v>
+        <v>4157.76</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2204,26 +2212,119 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="B28" s="5">
+        <v>46114</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>200</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>3557.76</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28" si="18">I27+C28-E28-F28-G28-H28</f>
+        <v>2743.7699999999995</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" ref="J28" si="19">J27-F28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" ref="K28" si="20">K27-H28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" ref="L28" si="21">L27-G28+D28</f>
+        <v>800</v>
+      </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="N28" s="19">
+        <f>N25</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <f>SUM(D23:D27)</f>
+        <v>800</v>
+      </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="Q28" s="16">
+        <f>Q25</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="11">
+        <f>R25+O24</f>
+        <v>3557.76</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="19">
+        <f>N28-H28</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="16">
+        <f>Q28-F28</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <f>R28-G28</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/budget-dashboard/public/budget.xlsx
+++ b/budget-dashboard/public/budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F7B2C-7344-4E6A-94C6-AF723048DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB751921-6EA5-4D28-A3A5-11D4FE198D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28920" yWindow="-4215" windowWidth="24630" windowHeight="19455" xr2:uid="{AB41CCEA-6DC9-4FE2-81C8-E03C986F168A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Paycheck</t>
   </si>
@@ -643,7 +643,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5">
-        <v>45977</v>
+        <v>45992</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -772,7 +772,8 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>567.45000000000005</v>
+        <f>S3</f>
+        <v>2191.39</v>
       </c>
       <c r="J3" s="6">
         <f>Q5-F3</f>
@@ -780,18 +781,18 @@
       </c>
       <c r="K3" s="6">
         <f>O5-H3</f>
-        <v>1737.9899999999998</v>
+        <v>3005.49</v>
       </c>
       <c r="L3" s="6">
         <f>R5-G3+D3</f>
-        <v>15357.76</v>
+        <v>15216.59</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2">
-        <v>1164.8599999999999</v>
+        <v>2933.66</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>11</v>
@@ -800,24 +801,24 @@
         <v>3727.93</v>
       </c>
       <c r="R3" s="2">
-        <v>15157.76</v>
+        <v>15016.59</v>
       </c>
       <c r="S3" s="15">
-        <v>977.45</v>
+        <v>2191.39</v>
       </c>
       <c r="T3" s="10">
         <f>O5+Q5+R5</f>
-        <v>20623.68</v>
+        <v>21750.010000000002</v>
       </c>
       <c r="U3" s="13">
         <f>S3-T3</f>
-        <v>-19646.23</v>
+        <v>-19558.620000000003</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="5">
-        <v>45981</v>
+        <v>45995</v>
       </c>
       <c r="C4" s="3">
         <v>3500</v>
@@ -828,35 +829,37 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="12">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="9">
+        <f>N4</f>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I22" si="0">I3+C4-E4-F4-G4-H4</f>
-        <v>4067.45</v>
-      </c>
-      <c r="J4" s="6">
-        <f>J3-F4</f>
+        <f t="shared" ref="I4:I25" si="0">I3+C4-E4-F4-G4-H4</f>
+        <v>4691.3899999999994</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J25" si="1">J3-F4</f>
         <v>3727.93</v>
       </c>
       <c r="K4" s="6">
-        <f>K3-H4</f>
-        <v>1737.9899999999998</v>
+        <f t="shared" ref="K4:K25" si="2">K3-H4</f>
+        <v>3005.49</v>
       </c>
       <c r="L4" s="6">
-        <f>L3-G4+D4</f>
-        <v>15557.76</v>
+        <f t="shared" ref="L4:L25" si="3">L3-G4+D4</f>
+        <v>14416.59</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4">
-        <v>573.13</v>
+        <v>71.83</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
@@ -866,8 +869,8 @@
         <v>0</v>
       </c>
       <c r="S4" s="6">
-        <f t="shared" ref="S4:S25" si="1">I4</f>
-        <v>4067.45</v>
+        <f>I4</f>
+        <v>4691.3899999999994</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -875,16 +878,16 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="5">
-        <v>45984</v>
+        <v>46002</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -897,19 +900,19 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>2307.4499999999998</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J22" si="2">J4-F5</f>
+        <v>4691.3899999999994</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="1"/>
         <v>3727.93</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K22" si="3">K4-H5</f>
-        <v>1737.9899999999998</v>
+        <f t="shared" si="2"/>
+        <v>3005.49</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L22" si="4">L4-G5+D5</f>
-        <v>15557.76</v>
+        <f t="shared" si="3"/>
+        <v>14616.59</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>18</v>
@@ -917,7 +920,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2">
         <f>O3+O4</f>
-        <v>1737.9899999999998</v>
+        <v>3005.49</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="6">
@@ -925,12 +928,12 @@
         <v>3727.93</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5" si="5">SUM(R3:R4)</f>
-        <v>15157.76</v>
+        <f t="shared" ref="R5" si="4">SUM(R3:R4)</f>
+        <v>15016.59</v>
       </c>
       <c r="S5" s="6">
-        <f t="shared" si="1"/>
-        <v>2307.4499999999998</v>
+        <f t="shared" ref="S5:S25" si="5">I5</f>
+        <v>4691.3899999999994</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -938,10 +941,10 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="5">
-        <v>45988</v>
+        <v>46009</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -960,19 +963,19 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>2307.4499999999998</v>
-      </c>
-      <c r="J6" s="6">
+        <v>8191.3899999999994</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K6" s="6">
         <f t="shared" si="2"/>
-        <v>3727.93</v>
-      </c>
-      <c r="K6" s="6">
+        <v>3005.49</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>1737.9899999999998</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="4"/>
-        <v>15757.76</v>
+        <v>14816.59</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>7</v>
@@ -983,8 +986,8 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="6">
-        <f t="shared" si="1"/>
-        <v>2307.4499999999998</v>
+        <f t="shared" si="5"/>
+        <v>8191.3899999999994</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -992,45 +995,45 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="5">
-        <v>45995</v>
+        <v>46014</v>
       </c>
       <c r="C7" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>750</v>
-      </c>
-      <c r="G7" s="12">
-        <v>4000</v>
-      </c>
-      <c r="H7" s="9">
-        <v>808.07</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1760</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>249.37999999999977</v>
-      </c>
-      <c r="J7" s="6">
+        <v>6431.3899999999994</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="2"/>
-        <v>2977.93</v>
-      </c>
-      <c r="K7" s="6">
+        <v>3005.49</v>
+      </c>
+      <c r="L7" s="6">
         <f t="shared" si="3"/>
-        <v>929.91999999999973</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="4"/>
-        <v>11957.76</v>
+        <v>14816.59</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
-        <v>808.07</v>
+        <v>791.26</v>
       </c>
       <c r="O7" s="4">
         <f>SUM(D3:D7)</f>
@@ -1041,25 +1044,25 @@
         <v>3727.93</v>
       </c>
       <c r="R7" s="11">
-        <v>9971.6</v>
+        <v>15008.09</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" si="1"/>
-        <v>249.37999999999977</v>
+        <f t="shared" si="5"/>
+        <v>6431.3899999999994</v>
       </c>
       <c r="T7" s="10">
         <f>N7+Q7+R7</f>
-        <v>14507.6</v>
+        <v>19527.28</v>
       </c>
       <c r="U7" s="13">
         <f>S7-T7</f>
-        <v>-14258.220000000001</v>
+        <v>-13095.89</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="5">
-        <v>46002</v>
+        <v>46016</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1081,54 +1084,54 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>249.37999999999977</v>
-      </c>
-      <c r="J8" s="6">
+        <v>6431.3899999999994</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="2"/>
-        <v>2977.93</v>
-      </c>
-      <c r="K8" s="15">
+        <v>3005.49</v>
+      </c>
+      <c r="L8" s="6">
         <f t="shared" si="3"/>
-        <v>929.91999999999973</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="4"/>
-        <v>12157.76</v>
+        <v>15016.59</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="9">
         <f>N7-H7</f>
-        <v>0</v>
+        <v>791.26</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="11">
         <f>Q7-F7</f>
-        <v>2977.93</v>
+        <v>3727.93</v>
       </c>
       <c r="R8" s="11">
         <f>R7-G7</f>
-        <v>5971.6</v>
+        <v>15008.09</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="1"/>
-        <v>249.37999999999977</v>
+        <f t="shared" si="5"/>
+        <v>6431.3899999999994</v>
       </c>
       <c r="T8" s="10">
         <f>N8+Q8+R8</f>
-        <v>8949.5300000000007</v>
+        <v>19527.28</v>
       </c>
       <c r="U8" s="13">
         <f>S8-T8</f>
-        <v>-8700.1500000000015</v>
+        <v>-13095.89</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="5">
-        <v>46009</v>
+        <v>46023</v>
       </c>
       <c r="C9" s="3">
         <v>3500</v>
@@ -1139,30 +1142,30 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="9">
+        <v>929.91999999999973</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>3749.3799999999997</v>
-      </c>
-      <c r="J9" s="6">
+        <v>5001.4699999999993</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>2977.93</v>
-      </c>
-      <c r="K9" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="3"/>
-        <v>929.91999999999973</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="4"/>
-        <v>12357.76</v>
+        <v>11216.59</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1171,8 +1174,8 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="6">
-        <f t="shared" si="1"/>
-        <v>3749.3799999999997</v>
+        <f t="shared" si="5"/>
+        <v>5001.4699999999993</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1180,16 +1183,16 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="5">
-        <v>46014</v>
+        <v>46030</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1202,19 +1205,19 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>1989.3799999999997</v>
-      </c>
-      <c r="J10" s="6">
+        <v>5001.4699999999993</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
-        <v>2977.93</v>
-      </c>
-      <c r="K10" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="3"/>
-        <v>929.91999999999973</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="4"/>
-        <v>12357.76</v>
+        <v>11416.59</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>18</v>
@@ -1225,8 +1228,8 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="6">
-        <f t="shared" si="1"/>
-        <v>1989.3799999999997</v>
+        <f t="shared" si="5"/>
+        <v>5001.4699999999993</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1234,10 +1237,10 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="5">
-        <v>46016</v>
+        <v>46037</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D11" s="4">
         <v>200</v>
@@ -1256,19 +1259,19 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>1989.3799999999997</v>
-      </c>
-      <c r="J11" s="6">
+        <v>8501.4699999999993</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
-        <v>2977.93</v>
-      </c>
-      <c r="K11" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L11" s="6">
         <f t="shared" si="3"/>
-        <v>929.91999999999973</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="4"/>
-        <v>12557.76</v>
+        <v>11616.59</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1277,8 +1280,8 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="6">
-        <f t="shared" si="1"/>
-        <v>1989.3799999999997</v>
+        <f t="shared" si="5"/>
+        <v>8501.4699999999993</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1286,10 +1289,10 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5">
-        <v>46023</v>
+        <v>46044</v>
       </c>
       <c r="C12" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
         <v>200</v>
@@ -1297,30 +1300,30 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="12">
-        <v>2977.93</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="9">
-        <v>929.91999999999973</v>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>581.52999999999963</v>
-      </c>
-      <c r="J12" s="6">
+        <v>8501.4699999999993</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="4"/>
-        <v>11757.76</v>
+        <v>11816.59</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>7</v>
@@ -1331,8 +1334,8 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="6">
-        <f t="shared" si="1"/>
-        <v>581.52999999999963</v>
+        <f t="shared" si="5"/>
+        <v>8501.4699999999993</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1340,16 +1343,16 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5">
-        <v>46030</v>
+        <v>46045</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>200</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1760</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1362,57 +1365,57 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>581.52999999999963</v>
-      </c>
-      <c r="J13" s="6">
+        <v>6741.4699999999993</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K13" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L13" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="4"/>
-        <v>11957.76</v>
+        <v>11816.59</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="11">
         <f>N8 + (O5-N7)</f>
-        <v>929.91999999999973</v>
+        <v>3005.49</v>
       </c>
       <c r="O13" s="4">
         <f>SUM(D8:D12)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="11">
         <f>Q8 + (Q5-Q7)</f>
-        <v>2977.93</v>
+        <v>3727.93</v>
       </c>
       <c r="R13" s="11">
         <f>R8 + (R5-R7) + O7</f>
-        <v>11957.76</v>
+        <v>15816.59</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="1"/>
-        <v>581.52999999999963</v>
+        <f t="shared" si="5"/>
+        <v>6741.4699999999993</v>
       </c>
       <c r="T13" s="10">
         <f>N13+Q13+R13</f>
-        <v>15865.61</v>
+        <v>22550.010000000002</v>
       </c>
       <c r="U13" s="13">
         <f>S13-T13</f>
-        <v>-15284.080000000002</v>
+        <v>-15808.540000000003</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="5">
-        <v>46037</v>
+        <v>46051</v>
       </c>
       <c r="C14" s="3">
         <v>3500</v>
@@ -1434,52 +1437,52 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>4081.5299999999997</v>
-      </c>
-      <c r="J14" s="6">
+        <v>10241.469999999999</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>3727.93</v>
+      </c>
+      <c r="K14" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="4"/>
-        <v>12157.76</v>
+        <v>12016.59</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="19">
         <f>N13-H12</f>
-        <v>0</v>
+        <v>3005.49</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="16">
         <f>Q13-F12</f>
-        <v>0</v>
+        <v>3727.93</v>
       </c>
       <c r="R14" s="11">
         <f>R13-G12</f>
-        <v>10957.76</v>
+        <v>15816.59</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" si="1"/>
-        <v>4081.5299999999997</v>
+        <f t="shared" si="5"/>
+        <v>10241.469999999999</v>
       </c>
       <c r="T14" s="10">
         <f>N14+Q14+R14</f>
-        <v>10957.76</v>
+        <v>22550.010000000002</v>
       </c>
       <c r="U14" s="13">
         <f>S14-T14</f>
-        <v>-6876.2300000000005</v>
+        <v>-12308.540000000003</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5">
-        <v>46044</v>
+        <v>46058</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1490,30 +1493,31 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="F15" s="12">
+        <f>Q14</f>
+        <v>3727.93</v>
+      </c>
+      <c r="G15" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="9">
         <v>0</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>4081.5299999999997</v>
-      </c>
-      <c r="J15" s="6">
+        <v>1513.5399999999991</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L15" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="4"/>
-        <v>12357.76</v>
+        <v>7216.59</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>18</v>
@@ -1524,8 +1528,8 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="6">
-        <f t="shared" si="1"/>
-        <v>4081.5299999999997</v>
+        <f t="shared" si="5"/>
+        <v>1513.5399999999991</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1533,16 +1537,16 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5">
-        <v>46045</v>
+        <v>46065</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -1555,19 +1559,19 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>2321.5299999999997</v>
-      </c>
-      <c r="J16" s="6">
+        <v>5013.5399999999991</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="4"/>
-        <v>12357.76</v>
+        <v>7416.59</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1576,8 +1580,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="6">
-        <f t="shared" si="1"/>
-        <v>2321.5299999999997</v>
+        <f t="shared" si="5"/>
+        <v>5013.5399999999991</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1585,10 +1589,10 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5">
-        <v>46051</v>
+        <v>46072</v>
       </c>
       <c r="C17" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>200</v>
@@ -1607,19 +1611,19 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>5821.53</v>
-      </c>
-      <c r="J17" s="6">
+        <v>5013.5399999999991</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L17" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="4"/>
-        <v>12557.76</v>
+        <v>7616.59</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>7</v>
@@ -1630,8 +1634,8 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="6">
-        <f t="shared" si="1"/>
-        <v>5821.53</v>
+        <f t="shared" si="5"/>
+        <v>5013.5399999999991</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1639,80 +1643,79 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="5">
-        <v>46058</v>
+        <v>46076</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>200</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <f>Q17</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>5000</v>
-      </c>
-      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1760</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>821.52999999999975</v>
-      </c>
-      <c r="J18" s="6">
+        <v>3253.5399999999991</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L18" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="4"/>
-        <v>7757.76</v>
+        <v>7616.59</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="19">
         <f>N14</f>
-        <v>0</v>
+        <v>3005.49</v>
       </c>
       <c r="O18" s="4">
         <f>SUM(D13:D18)</f>
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="16">
         <f>Q14</f>
-        <v>0</v>
+        <v>3727.93</v>
       </c>
       <c r="R18" s="11">
         <f>R14+O13</f>
-        <v>11757.76</v>
+        <v>16816.59</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="1"/>
-        <v>821.52999999999975</v>
+        <f t="shared" si="5"/>
+        <v>3253.5399999999991</v>
       </c>
       <c r="T18" s="10">
         <f>N18+Q18+R18</f>
-        <v>11757.76</v>
+        <v>23550.010000000002</v>
       </c>
       <c r="U18" s="14">
         <f>S17-T18</f>
-        <v>-5936.2300000000005</v>
+        <v>-18536.47</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="5">
-        <v>46065</v>
+        <v>46079</v>
       </c>
       <c r="C19" s="3">
         <v>3500</v>
@@ -1734,52 +1737,52 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>4321.53</v>
+        <v>6753.5399999999991</v>
       </c>
       <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="4"/>
-        <v>7957.76</v>
+        <v>7816.59</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="19">
         <f>N18-H13</f>
-        <v>0</v>
+        <v>3005.49</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="16">
         <f>Q18-F19</f>
-        <v>0</v>
+        <v>3727.93</v>
       </c>
       <c r="R19" s="11">
         <f>R18-G18</f>
-        <v>6757.76</v>
+        <v>16816.59</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="1"/>
-        <v>4321.53</v>
+        <f t="shared" si="5"/>
+        <v>6753.5399999999991</v>
       </c>
       <c r="T19" s="10">
         <f>N19+Q19+R19</f>
-        <v>6757.76</v>
+        <v>23550.010000000002</v>
       </c>
       <c r="U19" s="14">
         <f>S19-T19</f>
-        <v>-2436.2300000000005</v>
+        <v>-16796.47</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="5">
-        <v>46072</v>
+        <v>46086</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1790,30 +1793,30 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="9">
         <v>0</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>4321.53</v>
+        <v>1753.5399999999991</v>
       </c>
       <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L20" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="4"/>
-        <v>8157.76</v>
+        <v>3016.59</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>18</v>
@@ -1824,8 +1827,8 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="6">
-        <f t="shared" si="1"/>
-        <v>4321.53</v>
+        <f t="shared" si="5"/>
+        <v>1753.5399999999991</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1833,16 +1836,16 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="5">
-        <v>46076</v>
+        <v>46093</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -1855,19 +1858,19 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>2561.5299999999997</v>
+        <v>5253.5399999999991</v>
       </c>
       <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="4"/>
-        <v>8157.76</v>
+        <v>3216.59</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1876,8 +1879,8 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="6">
-        <f t="shared" si="1"/>
-        <v>2561.5299999999997</v>
+        <f t="shared" si="5"/>
+        <v>5253.5399999999991</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1885,10 +1888,10 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="5">
-        <v>46079</v>
+        <v>46100</v>
       </c>
       <c r="C22" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
         <v>200</v>
@@ -1907,19 +1910,19 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>6061.53</v>
+        <v>5253.5399999999991</v>
       </c>
       <c r="J22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
+        <v>2075.5700000000002</v>
+      </c>
+      <c r="L22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="4"/>
-        <v>8357.76</v>
+        <v>3416.59</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>18</v>
@@ -1930,8 +1933,8 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="6">
-        <f t="shared" si="1"/>
-        <v>6061.53</v>
+        <f t="shared" si="5"/>
+        <v>5253.5399999999991</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1939,41 +1942,41 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="5">
-        <v>46086</v>
+        <v>46104</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D23" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>5000</v>
-      </c>
-      <c r="H23" s="9">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" ref="I23" si="6">I22+C23-E23-F23-G23-H23</f>
-        <v>1061.5299999999997</v>
+        <f t="shared" si="0"/>
+        <v>8753.5399999999991</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" ref="J23" si="7">J22-F23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" ref="K23" si="8">K22-H23</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2075.5700000000002</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23" si="9">L22-G23+D23</f>
-        <v>3557.76</v>
+        <f t="shared" si="3"/>
+        <v>3416.59</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1982,8 +1985,8 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="6">
-        <f t="shared" si="1"/>
-        <v>1061.5299999999997</v>
+        <f t="shared" si="5"/>
+        <v>8753.5399999999991</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1991,16 +1994,16 @@
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="5">
-        <v>46093</v>
+        <v>46107</v>
       </c>
       <c r="C24" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
         <v>200</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
+      <c r="E24" s="4">
+        <v>1760</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2012,25 +2015,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" ref="I24:I25" si="10">I23+C24-E24-F24-G24-H24</f>
-        <v>4561.53</v>
+        <f t="shared" si="0"/>
+        <v>6993.5399999999991</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" ref="J24:J25" si="11">J23-F24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:K25" si="12">K23-H24</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2075.5700000000002</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ref="L24:L25" si="13">L23-G24+D24</f>
-        <v>3757.76</v>
+        <f t="shared" si="3"/>
+        <v>3616.59</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="19">
         <f>N19</f>
-        <v>0</v>
+        <v>3005.49</v>
       </c>
       <c r="O24" s="4">
         <f>SUM(D19:D23)</f>
@@ -2039,15 +2042,15 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="16">
         <f>Q19</f>
-        <v>0</v>
+        <v>3727.93</v>
       </c>
       <c r="R24" s="11">
         <f>R19+O18</f>
-        <v>7757.76</v>
+        <v>17616.59</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="1"/>
-        <v>4561.53</v>
+        <f t="shared" si="5"/>
+        <v>6993.5399999999991</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2055,7 +2058,7 @@
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="5">
-        <v>46100</v>
+        <v>46114</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -2066,240 +2069,142 @@
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3557.76</v>
+      </c>
+      <c r="H25" s="9">
         <v>0</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25:I27" si="14">I24+C25-E25-F25-G25-H25</f>
-        <v>4561.53</v>
+        <f t="shared" si="0"/>
+        <v>3435.7799999999988</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" ref="J25:J27" si="15">J24-F25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" ref="K25:K27" si="16">K24-H25</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2075.5700000000002</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25:L27" si="17">L24-G25+D25</f>
-        <v>3957.76</v>
+        <f t="shared" si="3"/>
+        <v>258.82999999999993</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="19">
         <f>N24-H23</f>
-        <v>0</v>
+        <v>3005.49</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="16">
         <f>Q24-F23</f>
-        <v>0</v>
+        <v>3727.93</v>
       </c>
       <c r="R25" s="11">
         <f>R24-G23</f>
-        <v>2757.76</v>
-      </c>
-      <c r="S25" s="2"/>
+        <v>17616.59</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="5"/>
+        <v>3435.7799999999988</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="5">
-        <v>46104</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="14"/>
-        <v>8061.53</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="17"/>
-        <v>3957.76</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="5">
-        <v>46107</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>200</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1760</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="14"/>
-        <v>6301.53</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="17"/>
-        <v>4157.76</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="5">
-        <v>46114</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>200</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>3557.76</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" ref="I28" si="18">I27+C28-E28-F28-G28-H28</f>
-        <v>2743.7699999999995</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" ref="J28" si="19">J27-F28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <f t="shared" ref="K28" si="20">K27-H28</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" ref="L28" si="21">L27-G28+D28</f>
-        <v>800</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="19">
-        <f>N25</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <f>SUM(D23:D27)</f>
-        <v>800</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="16">
-        <f>Q25</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="11">
-        <f>R25+O24</f>
-        <v>3557.76</v>
-      </c>
-      <c r="S28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="19">
-        <f>N28-H28</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="16">
-        <f>Q28-F28</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="16">
-        <f>R28-G28</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>

--- a/budget-dashboard/public/budget.xlsx
+++ b/budget-dashboard/public/budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\PycharmProjects\FinancialDashboard\budget-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB751921-6EA5-4D28-A3A5-11D4FE198D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576DAD9-17A0-4C2F-BA96-E82237083BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="-4215" windowWidth="24630" windowHeight="19455" xr2:uid="{AB41CCEA-6DC9-4FE2-81C8-E03C986F168A}"/>
+    <workbookView xWindow="28920" yWindow="-4215" windowWidth="24135" windowHeight="19455" xr2:uid="{AB41CCEA-6DC9-4FE2-81C8-E03C986F168A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -270,7 +276,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
@@ -293,6 +299,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52283031-DB9A-4476-88C9-66DCDD796C5D}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +735,10 @@
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="2" t="s">
         <v>13</v>
@@ -751,7 +759,7 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -773,46 +781,46 @@
       </c>
       <c r="I3" s="6">
         <f>S3</f>
-        <v>2191.39</v>
+        <v>489.17</v>
       </c>
       <c r="J3" s="6">
         <f>Q5-F3</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K3" s="6">
         <f>O5-H3</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="L3" s="6">
         <f>R5-G3+D3</f>
-        <v>15216.59</v>
+        <v>16443.78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2">
-        <v>2933.66</v>
+        <v>3005.49</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="6">
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R3" s="2">
-        <v>15016.59</v>
+        <v>15234.63</v>
       </c>
       <c r="S3" s="15">
-        <v>2191.39</v>
+        <v>489.17</v>
       </c>
       <c r="T3" s="10">
         <f>O5+Q5+R5</f>
-        <v>21750.010000000002</v>
+        <v>21508.66</v>
       </c>
       <c r="U3" s="13">
         <f>S3-T3</f>
-        <v>-19558.620000000003</v>
+        <v>-21019.49</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -821,7 +829,7 @@
         <v>45995</v>
       </c>
       <c r="C4" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D4" s="4">
         <v>200</v>
@@ -842,35 +850,35 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I25" si="0">I3+C4-E4-F4-G4-H4</f>
-        <v>4691.3899999999994</v>
+        <v>3139.17</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J25" si="1">J3-F4</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K25" si="2">K3-H4</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L25" si="3">L3-G4+D4</f>
-        <v>14416.59</v>
+        <v>15643.779999999999</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4">
-        <v>71.83</v>
+        <v>31.46</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="10">
-        <v>0</v>
+        <v>1009.1500000000015</v>
       </c>
       <c r="S4" s="6">
         <f>I4</f>
-        <v>4691.3899999999994</v>
+        <v>3139.17</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -900,19 +908,19 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>4691.3899999999994</v>
+        <v>3139.17</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="2"/>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>14616.59</v>
+        <v>15843.779999999999</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>18</v>
@@ -920,20 +928,20 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2">
         <f>O3+O4</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="6">
         <f>SUM(Q3:Q4)</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5" si="4">SUM(R3:R4)</f>
-        <v>15016.59</v>
+        <v>16243.78</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" ref="S5:S25" si="5">I5</f>
-        <v>4691.3899999999994</v>
+        <v>3139.17</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -944,7 +952,7 @@
         <v>46009</v>
       </c>
       <c r="C6" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -963,19 +971,19 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>8191.3899999999994</v>
+        <v>6789.17</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="2"/>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>14816.59</v>
+        <v>16043.779999999999</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>7</v>
@@ -987,7 +995,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="6">
         <f t="shared" si="5"/>
-        <v>8191.3899999999994</v>
+        <v>6789.17</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1017,19 +1025,19 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>6431.3899999999994</v>
+        <v>5029.17</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="2"/>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="3"/>
-        <v>14816.59</v>
+        <v>16043.779999999999</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
@@ -1041,22 +1049,22 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="11">
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R7" s="11">
         <v>15008.09</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="5"/>
-        <v>6431.3899999999994</v>
+        <v>5029.17</v>
       </c>
       <c r="T7" s="10">
         <f>N7+Q7+R7</f>
-        <v>19527.28</v>
+        <v>18027.28</v>
       </c>
       <c r="U7" s="13">
         <f>S7-T7</f>
-        <v>-13095.89</v>
+        <v>-12998.109999999999</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1084,19 +1092,19 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>6431.3899999999994</v>
+        <v>5029.17</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="2"/>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="3"/>
-        <v>15016.59</v>
+        <v>16243.779999999999</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>18</v>
@@ -1109,7 +1117,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="11">
         <f>Q7-F7</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R8" s="11">
         <f>R7-G7</f>
@@ -1117,15 +1125,15 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" si="5"/>
-        <v>6431.3899999999994</v>
+        <v>5029.17</v>
       </c>
       <c r="T8" s="10">
         <f>N8+Q8+R8</f>
-        <v>19527.28</v>
+        <v>18027.28</v>
       </c>
       <c r="U8" s="13">
         <f>S8-T8</f>
-        <v>-13095.89</v>
+        <v>-12998.109999999999</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1134,7 +1142,7 @@
         <v>46023</v>
       </c>
       <c r="C9" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D9" s="4">
         <v>200</v>
@@ -1153,19 +1161,19 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>5001.4699999999993</v>
+        <v>3749.2500000000005</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="3"/>
-        <v>11216.59</v>
+        <v>12443.779999999999</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1175,7 +1183,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="6">
         <f t="shared" si="5"/>
-        <v>5001.4699999999993</v>
+        <v>3749.2500000000005</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1205,19 +1213,19 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>5001.4699999999993</v>
+        <v>3749.2500000000005</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="3"/>
-        <v>11416.59</v>
+        <v>12643.779999999999</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>18</v>
@@ -1229,7 +1237,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="6">
         <f t="shared" si="5"/>
-        <v>5001.4699999999993</v>
+        <v>3749.2500000000005</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1240,7 +1248,7 @@
         <v>46037</v>
       </c>
       <c r="C11" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D11" s="4">
         <v>200</v>
@@ -1259,19 +1267,19 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>8501.4699999999993</v>
+        <v>7399.25</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="3"/>
-        <v>11616.59</v>
+        <v>12843.779999999999</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1281,7 +1289,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="6">
         <f t="shared" si="5"/>
-        <v>8501.4699999999993</v>
+        <v>7399.25</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1311,19 +1319,19 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>8501.4699999999993</v>
+        <v>7399.25</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>11816.59</v>
+        <v>13043.779999999999</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>7</v>
@@ -1335,7 +1343,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6">
         <f t="shared" si="5"/>
-        <v>8501.4699999999993</v>
+        <v>7399.25</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1365,26 +1373,26 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>6741.4699999999993</v>
+        <v>5639.25</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="3"/>
-        <v>11816.59</v>
+        <v>13043.779999999999</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="11">
         <f>N8 + (O5-N7)</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="O13" s="4">
         <f>SUM(D8:D12)</f>
@@ -1393,23 +1401,23 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="11">
         <f>Q8 + (Q5-Q7)</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R13" s="11">
         <f>R8 + (R5-R7) + O7</f>
-        <v>15816.59</v>
+        <v>17043.78</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="5"/>
-        <v>6741.4699999999993</v>
+        <v>5639.25</v>
       </c>
       <c r="T13" s="10">
         <f>N13+Q13+R13</f>
-        <v>22550.010000000002</v>
+        <v>22308.659999999996</v>
       </c>
       <c r="U13" s="13">
         <f>S13-T13</f>
-        <v>-15808.540000000003</v>
+        <v>-16669.409999999996</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1418,7 +1426,7 @@
         <v>46051</v>
       </c>
       <c r="C14" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D14" s="4">
         <v>200</v>
@@ -1437,46 +1445,46 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>10241.469999999999</v>
+        <v>9289.25</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="3"/>
-        <v>12016.59</v>
+        <v>13243.779999999999</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="19">
         <f>N13-H12</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="16">
         <f>Q13-F12</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R14" s="11">
         <f>R13-G12</f>
-        <v>15816.59</v>
+        <v>17043.78</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="5"/>
-        <v>10241.469999999999</v>
+        <v>9289.25</v>
       </c>
       <c r="T14" s="10">
         <f>N14+Q14+R14</f>
-        <v>22550.010000000002</v>
+        <v>22308.659999999996</v>
       </c>
       <c r="U14" s="13">
         <f>S14-T14</f>
-        <v>-12308.540000000003</v>
+        <v>-13019.409999999996</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1495,7 +1503,7 @@
       </c>
       <c r="F15" s="12">
         <f>Q14</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="G15" s="12">
         <v>5000</v>
@@ -1505,7 +1513,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>1513.5399999999991</v>
+        <v>2061.3199999999997</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
@@ -1513,11 +1521,11 @@
       </c>
       <c r="K15" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="3"/>
-        <v>7216.59</v>
+        <v>8443.7799999999988</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>18</v>
@@ -1529,7 +1537,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="6">
         <f t="shared" si="5"/>
-        <v>1513.5399999999991</v>
+        <v>2061.3199999999997</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1540,7 +1548,7 @@
         <v>46065</v>
       </c>
       <c r="C16" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D16" s="4">
         <v>200</v>
@@ -1559,7 +1567,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>5013.5399999999991</v>
+        <v>5711.32</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="1"/>
@@ -1567,11 +1575,11 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="3"/>
-        <v>7416.59</v>
+        <v>8643.7799999999988</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1581,7 +1589,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="6">
         <f t="shared" si="5"/>
-        <v>5013.5399999999991</v>
+        <v>5711.32</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1611,7 +1619,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>5013.5399999999991</v>
+        <v>5711.32</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="1"/>
@@ -1619,11 +1627,11 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="3"/>
-        <v>7616.59</v>
+        <v>8843.7799999999988</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>7</v>
@@ -1635,7 +1643,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="6">
         <f t="shared" si="5"/>
-        <v>5013.5399999999991</v>
+        <v>5711.32</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1665,7 +1673,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>3253.5399999999991</v>
+        <v>3951.3199999999997</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="1"/>
@@ -1673,18 +1681,18 @@
       </c>
       <c r="K18" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="3"/>
-        <v>7616.59</v>
+        <v>8843.7799999999988</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="19">
         <f>N14</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="O18" s="4">
         <f>SUM(D13:D18)</f>
@@ -1693,23 +1701,23 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="16">
         <f>Q14</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R18" s="11">
         <f>R14+O13</f>
-        <v>16816.59</v>
+        <v>18043.78</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="5"/>
-        <v>3253.5399999999991</v>
+        <v>3951.3199999999997</v>
       </c>
       <c r="T18" s="10">
         <f>N18+Q18+R18</f>
-        <v>23550.010000000002</v>
+        <v>23308.659999999996</v>
       </c>
       <c r="U18" s="14">
         <f>S17-T18</f>
-        <v>-18536.47</v>
+        <v>-17597.339999999997</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1718,7 +1726,7 @@
         <v>46079</v>
       </c>
       <c r="C19" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D19" s="4">
         <v>200</v>
@@ -1737,7 +1745,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>6753.5399999999991</v>
+        <v>7601.32</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="1"/>
@@ -1745,38 +1753,38 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="3"/>
-        <v>7816.59</v>
+        <v>9043.7799999999988</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="19">
         <f>N18-H13</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="16">
         <f>Q18-F19</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R19" s="11">
         <f>R18-G18</f>
-        <v>16816.59</v>
+        <v>18043.78</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="5"/>
-        <v>6753.5399999999991</v>
+        <v>7601.32</v>
       </c>
       <c r="T19" s="10">
         <f>N19+Q19+R19</f>
-        <v>23550.010000000002</v>
+        <v>23308.659999999996</v>
       </c>
       <c r="U19" s="14">
         <f>S19-T19</f>
-        <v>-16796.47</v>
+        <v>-15707.339999999997</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1804,7 +1812,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>1753.5399999999991</v>
+        <v>2601.3199999999997</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="1"/>
@@ -1812,11 +1820,11 @@
       </c>
       <c r="K20" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="3"/>
-        <v>3016.59</v>
+        <v>4243.7799999999988</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>18</v>
@@ -1828,7 +1836,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="6">
         <f t="shared" si="5"/>
-        <v>1753.5399999999991</v>
+        <v>2601.3199999999997</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1839,7 +1847,7 @@
         <v>46093</v>
       </c>
       <c r="C21" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D21" s="4">
         <v>200</v>
@@ -1858,7 +1866,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>5253.5399999999991</v>
+        <v>6251.32</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="1"/>
@@ -1866,11 +1874,11 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="3"/>
-        <v>3216.59</v>
+        <v>4443.7799999999988</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1880,7 +1888,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="6">
         <f t="shared" si="5"/>
-        <v>5253.5399999999991</v>
+        <v>6251.32</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1910,7 +1918,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>5253.5399999999991</v>
+        <v>6251.32</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
@@ -1918,11 +1926,11 @@
       </c>
       <c r="K22" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="3"/>
-        <v>3416.59</v>
+        <v>4643.7799999999988</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>18</v>
@@ -1934,7 +1942,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="6">
         <f t="shared" si="5"/>
-        <v>5253.5399999999991</v>
+        <v>6251.32</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1945,7 +1953,7 @@
         <v>46104</v>
       </c>
       <c r="C23" s="3">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1964,7 +1972,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>8753.5399999999991</v>
+        <v>9901.32</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="1"/>
@@ -1972,11 +1980,11 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="3"/>
-        <v>3416.59</v>
+        <v>4643.7799999999988</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1986,7 +1994,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="6">
         <f t="shared" si="5"/>
-        <v>8753.5399999999991</v>
+        <v>9901.32</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2016,7 +2024,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>6993.5399999999991</v>
+        <v>8141.32</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="1"/>
@@ -2024,16 +2032,16 @@
       </c>
       <c r="K24" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="3"/>
-        <v>3616.59</v>
+        <v>4843.7799999999988</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="19">
         <f>N19</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="O24" s="4">
         <f>SUM(D19:D23)</f>
@@ -2042,15 +2050,15 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="16">
         <f>Q19</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R24" s="11">
         <f>R19+O18</f>
-        <v>17616.59</v>
+        <v>18843.78</v>
       </c>
       <c r="S24" s="6">
         <f t="shared" si="5"/>
-        <v>6993.5399999999991</v>
+        <v>8141.32</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2080,7 +2088,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="0"/>
-        <v>3435.7799999999988</v>
+        <v>4583.5599999999995</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="1"/>
@@ -2088,30 +2096,30 @@
       </c>
       <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v>2075.5700000000002</v>
+        <v>2107.0300000000002</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="3"/>
-        <v>258.82999999999993</v>
+        <v>1486.0199999999986</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="19">
         <f>N24-H23</f>
-        <v>3005.49</v>
+        <v>3036.95</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="16">
         <f>Q24-F23</f>
-        <v>3727.93</v>
+        <v>2227.9299999999998</v>
       </c>
       <c r="R25" s="11">
         <f>R24-G23</f>
-        <v>17616.59</v>
+        <v>18843.78</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="5"/>
-        <v>3435.7799999999988</v>
+        <v>4583.5599999999995</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2231,6 +2239,10 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R31" s="21"/>
+      <c r="S31" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="N2:O2"/>

--- a/budget-dashboard/public/budget.xlsx
+++ b/budget-dashboard/public/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\PycharmProjects\FinancialDashboard\budget-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576DAD9-17A0-4C2F-BA96-E82237083BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576DDA7-DF6D-4CFF-93BF-A5C2AE48CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28920" yWindow="-4215" windowWidth="24135" windowHeight="19455" xr2:uid="{AB41CCEA-6DC9-4FE2-81C8-E03C986F168A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -651,7 +652,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I42" sqref="I41:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,13 +760,13 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -781,55 +782,55 @@
       </c>
       <c r="I3" s="6">
         <f>S3</f>
-        <v>489.17</v>
+        <v>442.2</v>
       </c>
       <c r="J3" s="6">
         <f>Q5-F3</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K3" s="6">
         <f>O5-H3</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="L3" s="6">
         <f>R5-G3+D3</f>
-        <v>16443.78</v>
+        <v>17140.5</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2">
-        <v>3005.49</v>
+        <v>2448.33</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="6">
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>15234.63</v>
+        <v>16665.36</v>
       </c>
       <c r="S3" s="15">
-        <v>489.17</v>
+        <v>442.2</v>
       </c>
       <c r="T3" s="10">
         <f>O5+Q5+R5</f>
-        <v>21508.66</v>
+        <v>19689.39</v>
       </c>
       <c r="U3" s="13">
         <f>S3-T3</f>
-        <v>-21019.49</v>
+        <v>-19247.189999999999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="5">
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="C4" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>200</v>
@@ -837,48 +838,48 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
-        <f>Q4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="9">
-        <f>N4</f>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I25" si="0">I3+C4-E4-F4-G4-H4</f>
-        <v>3139.17</v>
+        <f t="shared" ref="I4:I24" si="0">I3+C4-E4-F4-G4-H4</f>
+        <v>442.2</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J25" si="1">J3-F4</f>
-        <v>2227.9299999999998</v>
+        <f t="shared" ref="J4:J24" si="1">J3-F4</f>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K4:K25" si="2">K3-H4</f>
-        <v>3036.95</v>
+        <f t="shared" ref="K4:K24" si="2">K3-H4</f>
+        <v>2548.89</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L25" si="3">L3-G4+D4</f>
-        <v>15643.779999999999</v>
-      </c>
-      <c r="M4" s="2"/>
+        <f t="shared" ref="L4:L24" si="3">L3-G4+D4</f>
+        <v>17340.5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="4">
-        <v>31.46</v>
+        <v>100.56</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="10">
-        <v>1009.1500000000015</v>
+        <v>475.14</v>
       </c>
       <c r="S4" s="6">
         <f>I4</f>
-        <v>3139.17</v>
+        <v>442.2</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -886,10 +887,10 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="5">
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D5" s="4">
         <v>200</v>
@@ -908,40 +909,40 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>3139.17</v>
+        <v>4092.2</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="2"/>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>15843.779999999999</v>
+        <v>17540.5</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
         <f>O3+O4</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="6">
         <f>SUM(Q3:Q4)</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ref="R5" si="4">SUM(R3:R4)</f>
-        <v>16243.78</v>
+        <v>17140.5</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" ref="S5:S25" si="5">I5</f>
-        <v>3139.17</v>
+        <v>4092.2</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -949,16 +950,16 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="5">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="C6" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1760</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -971,23 +972,21 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>6789.17</v>
+        <v>2332.1999999999998</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="2"/>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>16043.779999999999</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>17540.5</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -995,7 +994,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="6">
         <f t="shared" si="5"/>
-        <v>6789.17</v>
+        <v>2332.1999999999998</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1003,16 +1002,16 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="5">
-        <v>46014</v>
+        <v>46016</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1025,55 +1024,57 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>5029.17</v>
+        <v>2332.1999999999998</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="2"/>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="3"/>
-        <v>16043.779999999999</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>17740.5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="7">
         <v>791.26</v>
       </c>
       <c r="O7" s="4">
         <f>SUM(D3:D7)</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="11">
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R7" s="11">
         <v>15008.09</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="5"/>
-        <v>5029.17</v>
+        <v>2332.1999999999998</v>
       </c>
       <c r="T7" s="10">
         <f>N7+Q7+R7</f>
-        <v>18027.28</v>
+        <v>15799.35</v>
       </c>
       <c r="U7" s="13">
         <f>S7-T7</f>
-        <v>-12998.109999999999</v>
+        <v>-13467.150000000001</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="5">
-        <v>46016</v>
+        <v>46023</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D8" s="4">
         <v>200</v>
@@ -1081,34 +1082,32 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>929.91999999999973</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>5029.17</v>
+        <v>1052.2800000000002</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
-      </c>
-      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
-        <v>3036.95</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="3"/>
-        <v>16243.779999999999</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>13940.5</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="9">
         <f>N7-H7</f>
         <v>791.26</v>
@@ -1117,7 +1116,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="11">
         <f>Q7-F7</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R8" s="11">
         <f>R7-G7</f>
@@ -1125,24 +1124,24 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" si="5"/>
-        <v>5029.17</v>
+        <v>1052.2800000000002</v>
       </c>
       <c r="T8" s="10">
         <f>N8+Q8+R8</f>
-        <v>18027.28</v>
+        <v>15799.35</v>
       </c>
       <c r="U8" s="13">
         <f>S8-T8</f>
-        <v>-12998.109999999999</v>
+        <v>-14747.07</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="5">
-        <v>46023</v>
+        <v>46030</v>
       </c>
       <c r="C9" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
         <v>200</v>
@@ -1150,32 +1149,34 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>4000</v>
-      </c>
-      <c r="H9" s="9">
-        <v>929.91999999999973</v>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>3749.2500000000005</v>
+        <v>1052.2800000000002</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="3"/>
-        <v>12443.779999999999</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>14140.5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1183,7 +1184,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="6">
         <f t="shared" si="5"/>
-        <v>3749.2500000000005</v>
+        <v>1052.2800000000002</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1191,10 +1192,10 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="5">
-        <v>46030</v>
+        <v>46037</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D10" s="4">
         <v>200</v>
@@ -1213,23 +1214,21 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>3749.2500000000005</v>
+        <v>4702.2800000000007</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="3"/>
-        <v>12643.779999999999</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>14340.5</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1237,7 +1236,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="6">
         <f t="shared" si="5"/>
-        <v>3749.2500000000005</v>
+        <v>4702.2800000000007</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1245,10 +1244,10 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="5">
-        <v>46037</v>
+        <v>46044</v>
       </c>
       <c r="C11" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
         <v>200</v>
@@ -1267,21 +1266,23 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>7399.25</v>
+        <v>4702.2800000000007</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="3"/>
-        <v>12843.779999999999</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>14540.5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1289,7 +1290,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="6">
         <f t="shared" si="5"/>
-        <v>7399.25</v>
+        <v>4702.2800000000007</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1297,16 +1298,16 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>200</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1760</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1319,22 +1320,22 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>7399.25</v>
+        <v>2942.2800000000007</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>13043.779999999999</v>
+        <v>14540.5</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1343,7 +1344,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6">
         <f t="shared" si="5"/>
-        <v>7399.25</v>
+        <v>2942.2800000000007</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1351,16 +1352,16 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5">
-        <v>46045</v>
+        <v>46051</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1373,60 +1374,58 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>5639.25</v>
+        <v>6592.2800000000007</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="3"/>
-        <v>13043.779999999999</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>14740.5</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="11">
         <f>N8 + (O5-N7)</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="O13" s="4">
         <f>SUM(D8:D12)</f>
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="11">
         <f>Q8 + (Q5-Q7)</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R13" s="11">
         <f>R8 + (R5-R7) + O7</f>
-        <v>17043.78</v>
+        <v>17740.5</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="5"/>
-        <v>5639.25</v>
+        <v>6592.2800000000007</v>
       </c>
       <c r="T13" s="10">
         <f>N13+Q13+R13</f>
-        <v>22308.659999999996</v>
+        <v>20289.39</v>
       </c>
       <c r="U13" s="13">
         <f>S13-T13</f>
-        <v>-16669.409999999996</v>
+        <v>-13697.109999999999</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="5">
-        <v>46051</v>
+        <v>46058</v>
       </c>
       <c r="C14" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>200</v>
@@ -1434,66 +1433,69 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="F14" s="12">
+        <f>Q13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="9">
         <v>0</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>9289.25</v>
+        <v>1592.2800000000007</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="3"/>
-        <v>13243.779999999999</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>9940.5</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N14" s="19">
         <f>N13-H12</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="16">
         <f>Q13-F12</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R14" s="11">
         <f>R13-G12</f>
-        <v>17043.78</v>
+        <v>17740.5</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="5"/>
-        <v>9289.25</v>
+        <v>1592.2800000000007</v>
       </c>
       <c r="T14" s="10">
         <f>N14+Q14+R14</f>
-        <v>22308.659999999996</v>
+        <v>20289.39</v>
       </c>
       <c r="U14" s="13">
         <f>S14-T14</f>
-        <v>-13019.409999999996</v>
+        <v>-18697.11</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5">
-        <v>46058</v>
+        <v>46065</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D15" s="4">
         <v>200</v>
@@ -1501,19 +1503,18 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="12">
-        <f>Q14</f>
-        <v>2227.9299999999998</v>
-      </c>
-      <c r="G15" s="12">
-        <v>5000</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>2061.3199999999997</v>
+        <v>5242.2800000000007</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
@@ -1521,15 +1522,13 @@
       </c>
       <c r="K15" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="3"/>
-        <v>8443.7799999999988</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>10140.5</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -1537,7 +1536,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="6">
         <f t="shared" si="5"/>
-        <v>2061.3199999999997</v>
+        <v>5242.2800000000007</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1545,10 +1544,10 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5">
-        <v>46065</v>
+        <v>46072</v>
       </c>
       <c r="C16" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
         <v>200</v>
@@ -1567,7 +1566,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>5711.32</v>
+        <v>5242.2800000000007</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="1"/>
@@ -1575,13 +1574,15 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="3"/>
-        <v>8643.7799999999988</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>10340.5</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1589,7 +1590,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="6">
         <f t="shared" si="5"/>
-        <v>5711.32</v>
+        <v>5242.2800000000007</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1597,16 +1598,16 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5">
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>200</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1760</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -1619,7 +1620,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>5711.32</v>
+        <v>3482.2800000000007</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="1"/>
@@ -1627,14 +1628,14 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="3"/>
-        <v>8843.7799999999988</v>
+        <v>10340.5</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1643,7 +1644,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="6">
         <f t="shared" si="5"/>
-        <v>5711.32</v>
+        <v>3482.2800000000007</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1651,16 +1652,16 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="5">
-        <v>46076</v>
+        <v>46079</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1673,7 +1674,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>3951.3199999999997</v>
+        <v>7132.2800000000007</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="1"/>
@@ -1681,52 +1682,50 @@
       </c>
       <c r="K18" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="3"/>
-        <v>8843.7799999999988</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>10540.5</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="19">
         <f>N14</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="O18" s="4">
         <f>SUM(D13:D18)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="16">
         <f>Q14</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R18" s="11">
         <f>R14+O13</f>
-        <v>18043.78</v>
+        <v>18540.5</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="5"/>
-        <v>3951.3199999999997</v>
+        <v>7132.2800000000007</v>
       </c>
       <c r="T18" s="10">
         <f>N18+Q18+R18</f>
-        <v>23308.659999999996</v>
+        <v>21089.39</v>
       </c>
       <c r="U18" s="14">
         <f>S17-T18</f>
-        <v>-17597.339999999997</v>
+        <v>-17607.11</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="5">
-        <v>46079</v>
+        <v>46086</v>
       </c>
       <c r="C19" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>200</v>
@@ -1734,18 +1733,18 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="9">
         <v>0</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>7601.32</v>
+        <v>2132.2800000000007</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="1"/>
@@ -1753,47 +1752,49 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="3"/>
-        <v>9043.7799999999988</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>5740.5</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N19" s="19">
         <f>N18-H13</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="16">
         <f>Q18-F19</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R19" s="11">
         <f>R18-G18</f>
-        <v>18043.78</v>
+        <v>18540.5</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="5"/>
-        <v>7601.32</v>
+        <v>2132.2800000000007</v>
       </c>
       <c r="T19" s="10">
         <f>N19+Q19+R19</f>
-        <v>23308.659999999996</v>
+        <v>21089.39</v>
       </c>
       <c r="U19" s="14">
         <f>S19-T19</f>
-        <v>-15707.339999999997</v>
+        <v>-18957.11</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="5">
-        <v>46086</v>
+        <v>46093</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D20" s="4">
         <v>200</v>
@@ -1801,18 +1802,18 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>5000</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>2601.3199999999997</v>
+        <v>5782.2800000000007</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="1"/>
@@ -1820,15 +1821,13 @@
       </c>
       <c r="K20" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="3"/>
-        <v>4243.7799999999988</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>5940.5</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1836,7 +1835,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="6">
         <f t="shared" si="5"/>
-        <v>2601.3199999999997</v>
+        <v>5782.2800000000007</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1844,10 +1843,10 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="5">
-        <v>46093</v>
+        <v>46100</v>
       </c>
       <c r="C21" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
         <v>200</v>
@@ -1866,7 +1865,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>6251.32</v>
+        <v>5782.2800000000007</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="1"/>
@@ -1874,13 +1873,15 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="3"/>
-        <v>4443.7799999999988</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>6140.5</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1888,7 +1889,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="6">
         <f t="shared" si="5"/>
-        <v>6251.32</v>
+        <v>5782.2800000000007</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1896,13 +1897,13 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="5">
-        <v>46100</v>
+        <v>46104</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="D22" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1918,7 +1919,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>6251.32</v>
+        <v>9432.2800000000007</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
@@ -1926,15 +1927,13 @@
       </c>
       <c r="K22" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="3"/>
-        <v>4643.7799999999988</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>6140.5</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1942,7 +1941,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="6">
         <f t="shared" si="5"/>
-        <v>6251.32</v>
+        <v>9432.2800000000007</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1950,16 +1949,16 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="5">
-        <v>46104</v>
+        <v>46107</v>
       </c>
       <c r="C23" s="3">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1760</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -1972,7 +1971,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>9901.32</v>
+        <v>7672.2800000000007</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="1"/>
@@ -1980,11 +1979,11 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="3"/>
-        <v>4643.7799999999988</v>
+        <v>6340.5</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1994,7 +1993,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="6">
         <f t="shared" si="5"/>
-        <v>9901.32</v>
+        <v>7672.2800000000007</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2002,7 +2001,7 @@
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="5">
-        <v>46107</v>
+        <v>46114</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2010,21 +2009,21 @@
       <c r="D24" s="4">
         <v>200</v>
       </c>
-      <c r="E24" s="4">
-        <v>1760</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3557.76</v>
+      </c>
+      <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>8141.32</v>
+        <v>4114.5200000000004</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="1"/>
@@ -2032,16 +2031,16 @@
       </c>
       <c r="K24" s="15">
         <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
+        <v>1618.9700000000003</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="3"/>
-        <v>4843.7799999999988</v>
+        <v>2982.74</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="19">
         <f>N19</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="O24" s="4">
         <f>SUM(D19:D23)</f>
@@ -2050,76 +2049,50 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="16">
         <f>Q19</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R24" s="11">
         <f>R19+O18</f>
-        <v>18843.78</v>
+        <v>19540.5</v>
       </c>
       <c r="S24" s="6">
         <f t="shared" si="5"/>
-        <v>8141.32</v>
+        <v>4114.5200000000004</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="5">
-        <v>46114</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>200</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <v>3557.76</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>4583.5599999999995</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="2"/>
-        <v>2107.0300000000002</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="3"/>
-        <v>1486.0199999999986</v>
-      </c>
-      <c r="M25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="19">
         <f>N24-H23</f>
-        <v>3036.95</v>
+        <v>2548.89</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="16">
         <f>Q24-F23</f>
-        <v>2227.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="R25" s="11">
         <f>R24-G23</f>
-        <v>18843.78</v>
+        <v>19540.5</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="5"/>
-        <v>4583.5599999999995</v>
+        <v>0</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
